--- a/medicine/Handicap/Nationale_7_(film)/Nationale_7_(film).xlsx
+++ b/medicine/Handicap/Nationale_7_(film)/Nationale_7_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nationale 7 est un film français réalisé par Jean-Pierre Sinapi dans la collection Petites caméras initiée par Arte, sorti le 6 décembre 2000.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René, myopathe acariâtre et rebelle d'une cinquantaine d'années vit dans un foyer de la région toulonnaise. Julie, jeune éducatrice spécialisée, devient sa référente. René est très agressif avec elle, mais Julie ne se laisse pas faire. René lui avoue alors qu'il n'a qu'une obsession : faire encore l'amour avant que la maladie ne rende cela impossible. Julie va alors tout mettre en œuvre pour permettre à René d'avoir des relations sexuelles avec une prostituée, même si l'institution va se montrer réticente.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Nationale 7
 Réalisation : Jean-Pierre Sinapi
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nadia Kaci : Julie
 Olivier Gourmet : René
@@ -632,7 +650,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix du public au Festival de Berlin 2000
 Prix du public au Festival Cinématographique d'Automne de Gardanne, 2000
